--- a/data/LP48_Area_Parishes.xlsx
+++ b/data/LP48_Area_Parishes.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="149">
   <si>
     <t>NAME OF PARISH/ AREA</t>
   </si>
@@ -476,6 +476,12 @@
   </si>
   <si>
     <t>S/N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -</t>
   </si>
 </sst>
 </file>
@@ -897,8 +903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -954,7 +960,9 @@
       <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="15.5">
       <c r="A3" s="1">
@@ -998,7 +1006,9 @@
       <c r="F4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="15.5">
       <c r="A5" s="1">
@@ -1019,7 +1029,9 @@
       <c r="F5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="15.5">
       <c r="A6" s="1">
@@ -1040,7 +1052,9 @@
       <c r="F6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="15.5">
       <c r="A7" s="1">
@@ -1084,7 +1098,9 @@
       <c r="F8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="15.5">
       <c r="A9" s="1">
@@ -1151,7 +1167,9 @@
       <c r="F11" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="15.5">
       <c r="A12" s="1">
@@ -1241,7 +1259,9 @@
       <c r="F15" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="15.5">
       <c r="A16" s="1">
@@ -1308,7 +1328,9 @@
       <c r="F18" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G18" s="1"/>
+      <c r="G18" s="1" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="19" spans="1:7" ht="15.5">
       <c r="A19" s="1">
@@ -1329,7 +1351,9 @@
       <c r="F19" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="20" spans="1:7" ht="15.5">
       <c r="A20" s="1">
@@ -1373,7 +1397,9 @@
       <c r="F21" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="22" spans="1:7" ht="15.5">
       <c r="A22" s="1">

--- a/data/LP48_Area_Parishes.xlsx
+++ b/data/LP48_Area_Parishes.xlsx
@@ -903,13 +903,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="2.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.33203125" customWidth="1"/>
     <col min="4" max="4" width="38.08203125" customWidth="1"/>

--- a/data/LP48_Area_Parishes.xlsx
+++ b/data/LP48_Area_Parishes.xlsx
@@ -292,9 +292,6 @@
     <t>08026586933</t>
   </si>
   <si>
-    <t>86, FREEMAN STREET, LAGOS ISLAND, LAGOS</t>
-  </si>
-  <si>
     <t>opemike@yahoo.com</t>
   </si>
   <si>
@@ -310,9 +307,6 @@
     <t>08024582074</t>
   </si>
   <si>
-    <t>21, ASSOCIATION WAY, YAKOYO, OJODU, LAGOS.</t>
-  </si>
-  <si>
     <t>rccghouseofjoy247@gmail.com</t>
   </si>
   <si>
@@ -482,6 +476,12 @@
   </si>
   <si>
     <t xml:space="preserve"> -</t>
+  </si>
+  <si>
+    <t>86, Freeman street, lagos island, lagos</t>
+  </si>
+  <si>
+    <t>21, Association way, yakoyo, ojodu, lagos.</t>
   </si>
 </sst>
 </file>
@@ -504,13 +504,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -520,8 +513,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -559,14 +558,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -903,14 +908,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.33203125" customWidth="1"/>
     <col min="4" max="4" width="38.08203125" customWidth="1"/>
     <col min="5" max="5" width="11.75" bestFit="1" customWidth="1"/>
@@ -918,12 +923,12 @@
     <col min="7" max="7" width="30.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.5" customHeight="1">
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="15.5" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -945,7 +950,7 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -961,14 +966,14 @@
         <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.5">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -991,7 +996,7 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1007,14 +1012,14 @@
         <v>20</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.5">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1030,15 +1035,15 @@
         <v>25</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.5">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>137</v>
+      <c r="B6" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>26</v>
@@ -1053,14 +1058,14 @@
         <v>29</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.5">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1083,7 +1088,7 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1099,14 +1104,14 @@
         <v>40</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.5">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1129,7 +1134,7 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1152,7 +1157,7 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -1168,14 +1173,14 @@
         <v>57</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.5">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="5" t="s">
         <v>58</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1198,7 +1203,7 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1221,7 +1226,7 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="5" t="s">
         <v>70</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1244,7 +1249,7 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="5" t="s">
         <v>76</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -1260,14 +1265,14 @@
         <v>80</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.5">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="5" t="s">
         <v>81</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -1280,244 +1285,244 @@
         <v>84</v>
       </c>
       <c r="F16" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.5">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.5">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="G18" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.5">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>138</v>
+      <c r="B19" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="G19" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.5">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>139</v>
+      <c r="B20" s="5" t="s">
+        <v>137</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.5">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>140</v>
+      <c r="B21" s="5" t="s">
+        <v>138</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="G21" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.5">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>141</v>
+      <c r="B22" s="5" t="s">
+        <v>139</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.5">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>142</v>
+      <c r="B23" s="5" t="s">
+        <v>140</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.5">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>143</v>
+      <c r="B24" s="5" t="s">
+        <v>141</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.5">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>144</v>
+      <c r="B25" s="5" t="s">
+        <v>142</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.5">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>136</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
